--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>IDMENU</t>
   </si>
@@ -47,7 +47,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Gestion Alicaciones</t>
+    <t>Gestion Aplicaciones</t>
   </si>
   <si>
     <t>2</t>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Agregar Usuario</t>
+  </si>
+  <si>
+    <t>RegistrarUsuario</t>
   </si>
   <si>
     <t>8</t>
@@ -621,10 +624,16 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -636,12 +645,12 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -653,12 +662,12 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -670,18 +679,18 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -693,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>IDMENU</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Editar Persona</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Reportes</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,6 +596,12 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -703,6 +715,20 @@
       </c>
       <c r="E12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>IDMENU</t>
   </si>
@@ -59,31 +59,34 @@
     <t>3</t>
   </si>
   <si>
+    <t>Cuenta de Usuario</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Nuevo Catalogo</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Editar Catalogo</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Ver cuenta de usuarios</t>
+  </si>
+  <si>
     <t>Usuarios</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Nuevo Catalogo</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Editar Catalogo</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Agregar Usuario</t>
   </si>
   <si>
     <t>RegistrarUsuario</t>
@@ -637,15 +640,15 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -657,12 +660,12 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -674,12 +677,12 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -691,18 +694,18 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -714,12 +717,12 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -728,7 +731,13 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -71,7 +71,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Nuevo Catalogo</t>
+    <t>Lista de Catalogos</t>
   </si>
   <si>
     <t>6</t>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>IDMENU</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Reportes</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Lista de personas</t>
+  </si>
+  <si>
+    <t>EnlistarPersonas</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,6 +749,29 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>IDMENU</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Editar Catalogo</t>
   </si>
   <si>
+    <t>EditarCatalogos</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>Editar Persona</t>
+  </si>
+  <si>
+    <t>EnlistarPersonasEditar</t>
   </si>
   <si>
     <t>12</t>
@@ -631,10 +637,16 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -646,18 +658,18 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -669,12 +681,12 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -686,12 +698,12 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -703,18 +715,18 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -726,12 +738,18 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -740,18 +758,18 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -763,13 +781,13 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="SIS_WADM_ARBOLMENU_MVC">SIS_WADM_ARBOLMENU_MVC!$A$1:$H$1</definedName>
+    <definedName name="SIS_WADM_ARBOLMENU_MVC">SIS_WADM_ARBOLMENU_MVC!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>IDMENU</t>
   </si>
@@ -26,12 +26,6 @@
     <t>IDMENUPADRE</t>
   </si>
   <si>
-    <t>ID_NIVEL_USUARIO</t>
-  </si>
-  <si>
-    <t>ID_TIPO_USUARIO</t>
-  </si>
-  <si>
     <t>NOMBRE</t>
   </si>
   <si>
@@ -59,7 +53,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>Cuenta de Usuario</t>
+    <t>Cuentas de Usuario</t>
   </si>
   <si>
     <t>4</t>
@@ -71,10 +65,22 @@
     <t>5</t>
   </si>
   <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>Lista de Catalogos</t>
   </si>
   <si>
-    <t>6</t>
+    <t>202</t>
   </si>
   <si>
     <t>Editar Catalogo</t>
@@ -83,10 +89,10 @@
     <t>EditarCatalogos</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Ver cuenta de usuarios</t>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Cuenta de usuario</t>
   </si>
   <si>
     <t>Usuarios</t>
@@ -95,19 +101,7 @@
     <t>RegistrarUsuario</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Editar Usuario</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Eliminar Usuario</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>401</t>
   </si>
   <si>
     <t>Nueva Persona</t>
@@ -119,7 +113,7 @@
     <t>PersonaDefault</t>
   </si>
   <si>
-    <t>11</t>
+    <t>402</t>
   </si>
   <si>
     <t>Editar Persona</t>
@@ -128,19 +122,25 @@
     <t>EnlistarPersonasEditar</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Reportes</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>403</t>
   </si>
   <si>
     <t>Lista de personas</t>
   </si>
   <si>
     <t>EnlistarPersonas</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>Crear Horario de clase</t>
+  </si>
+  <si>
+    <t>Horarios</t>
+  </si>
+  <si>
+    <t>CrearHorarioClase</t>
   </si>
 </sst>
 </file>
@@ -510,13 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,258 +537,180 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/SIS_WADM_ARBOLMENU_MVC.xlsx
@@ -512,9 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
